--- a/asset/sample/Food_Menu_Upload.xlsx
+++ b/asset/sample/Food_Menu_Upload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\php7\htdocs\irestora_plus\asset\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Description</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Catetory *</t>
   </si>
   <si>
-    <t>Sale Price *</t>
-  </si>
-  <si>
     <t>Chinese</t>
   </si>
   <si>
@@ -56,15 +53,9 @@
     <t>Bev No</t>
   </si>
   <si>
-    <t>Bar No</t>
-  </si>
-  <si>
     <t>Veg Yes</t>
   </si>
   <si>
-    <t>Is it Bar Item? *</t>
-  </si>
-  <si>
     <t>CGST,IGST,SGST,VAT</t>
   </si>
   <si>
@@ -78,6 +69,27 @@
   </si>
   <si>
     <t xml:space="preserve">Vegetable Noodles </t>
+  </si>
+  <si>
+    <t>Image File Name with Extension</t>
+  </si>
+  <si>
+    <t>Sale Price(Dine in) *</t>
+  </si>
+  <si>
+    <t>Sale Price(Take way) *</t>
+  </si>
+  <si>
+    <t>Sale Price(Delivery) *</t>
+  </si>
+  <si>
+    <t>55,56</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Loyalty Point</t>
   </si>
   <si>
     <r>
@@ -103,18 +115,19 @@
 - Please remove value from row 4 and place data from there
 - * Marked fields are required
 - Enter maximum 50 rows at a time, if you need to upload more than 50, fill the file again and upload again
+- If you face 50 rows exceeded error but you dont have more than 50 rows, please check this video https://youtu.be/zU0ZTQsrYPk
 - You don’t need to add Category separately from web interface, you just enter those here, system will check if it is not remaining in DB, system will insert that by itself
+- Sale Price (Delivery), if you maintain delivery parter, example you added 2 delivery parterns like X and Y then you need to add the Sale Price 55,66  here is the 55 is the value of X and 66 is the value of Y.  
+***Note: If you don't have any delivery partner then you need to put the delivery price like as Take Away.
 - Be careful with any name spelling
 - Do not use nothing than a number in Sale Price 
 - If an item does not have any Tax, then enter None in Tax Name and 0 in Tax Percentage
 - Is it Veg item? columns can contain only Veg Yes or Veg No
 - Is it Beverage item? columns can contain only Bev Yes or Bev No
 - Is it Bar item? columns can contain only Bar Yes or Bar No
-- Before working on this excel file please resize all of your food images by 142px width and 80px height, then upload all to images folder in the root, then put your images names with extension of each food item in column K</t>
+- Before working on this excel file please resize all of your food images by 142px width and 80px height, then upload all to images folder in the root, then put your images names with extension of each food item in column K
+ - Please skip adding Variations of any product here, first upload main products then to add variants please follow this video go to the link- https://youtu.be/qxeVAU_xNIQ</t>
     </r>
-  </si>
-  <si>
-    <t>Image File Name with Extension</t>
   </si>
 </sst>
 </file>
@@ -470,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,29 +494,32 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -514,8 +530,9 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,63 +543,78 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
+      <c r="E4">
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
-        <v>10</v>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
